--- a/LTspice_Simulation/Capstone_circuit_eqns.xlsx
+++ b/LTspice_Simulation/Capstone_circuit_eqns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5754f58900b5005/Documents/ECE41_413/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8714C078-3746-4CDC-8366-3CF6C0496AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="567" documentId="8_{8714C078-3746-4CDC-8366-3CF6C0496AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6020403D-B5EA-4460-A230-5BDF0BE687EC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{125BC698-6383-4C32-B98B-768D94B27DBA}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="14490" windowHeight="16010" xr2:uid="{125BC698-6383-4C32-B98B-768D94B27DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
   <si>
     <t>Coulomb Circuit</t>
   </si>
@@ -71,33 +71,12 @@
     <t>R2:</t>
   </si>
   <si>
-    <t>Vout 1 Range:</t>
-  </si>
-  <si>
-    <t>Amplifier 2</t>
-  </si>
-  <si>
-    <t>Vout 2 Range:</t>
-  </si>
-  <si>
     <t>Minimum Charge ADC can detect:</t>
   </si>
   <si>
-    <t>Gain1:</t>
-  </si>
-  <si>
-    <t>Gain2:</t>
-  </si>
-  <si>
-    <t>Total Gain:</t>
-  </si>
-  <si>
     <t>Bit size:</t>
   </si>
   <si>
-    <t>+/- Voltage</t>
-  </si>
-  <si>
     <t>(very minimum)</t>
   </si>
   <si>
@@ -108,9 +87,6 @@
   </si>
   <si>
     <t>5 second tau rule:</t>
-  </si>
-  <si>
-    <t>~ 1 sec is good</t>
   </si>
   <si>
     <t>Charge Range :</t>
@@ -134,9 +110,6 @@
   </si>
   <si>
     <t>V</t>
-  </si>
-  <si>
-    <t>Output Range (V1):</t>
   </si>
   <si>
     <t>Max Voltage In:</t>
@@ -172,13 +145,88 @@
     <t>Min Charge in C:</t>
   </si>
   <si>
-    <t>ADC</t>
-  </si>
-  <si>
     <t>kΩ</t>
   </si>
   <si>
     <t>Fits ADC ?                     (Can read min V and is less than max V)</t>
+  </si>
+  <si>
+    <t>Virtual GND:</t>
+  </si>
+  <si>
+    <t>Gain 1</t>
+  </si>
+  <si>
+    <t>Gain 2</t>
+  </si>
+  <si>
+    <t>Gain 3</t>
+  </si>
+  <si>
+    <t>Gain 1:</t>
+  </si>
+  <si>
+    <t>Gain 2:</t>
+  </si>
+  <si>
+    <t>Gain 3:</t>
+  </si>
+  <si>
+    <t>R3:</t>
+  </si>
+  <si>
+    <t>R0:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Voltage</t>
+  </si>
+  <si>
+    <t>Standard ADC</t>
+  </si>
+  <si>
+    <t>ADC when we have adjustable gain and don't use full range</t>
+  </si>
+  <si>
+    <t>Effective Bit depth:</t>
+  </si>
+  <si>
+    <t>Max Voltage able:</t>
+  </si>
+  <si>
+    <t>out of 14 bits</t>
+  </si>
+  <si>
+    <t>With Virtual GND (+):</t>
+  </si>
+  <si>
+    <t>With Virtual GND (-):</t>
+  </si>
+  <si>
+    <t>Vout 1 Range (+):</t>
+  </si>
+  <si>
+    <t>Vout 1 Range (-):</t>
+  </si>
+  <si>
+    <t>Output Range (- V1):</t>
+  </si>
+  <si>
+    <t>Output Range (+ V1):</t>
+  </si>
+  <si>
+    <t>Scaling factor</t>
+  </si>
+  <si>
+    <t>Effective Ranges</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Charge +/-</t>
+  </si>
+  <si>
+    <t>in fempto</t>
   </si>
 </sst>
 </file>
@@ -190,9 +238,9 @@
     <numFmt numFmtId="165" formatCode="0.0000000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.00000000"/>
-    <numFmt numFmtId="175" formatCode="0.0"/>
-    <numFmt numFmtId="185" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -211,21 +259,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,12 +300,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,14 +393,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -372,49 +413,56 @@
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -746,483 +794,1035 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA788FB-05C8-49B4-A925-123CB0BB7A08}">
-  <dimension ref="B2:M43"/>
+  <dimension ref="A2:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="87" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
     <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" customWidth="1"/>
     <col min="9" max="9" width="20.6328125" customWidth="1"/>
     <col min="10" max="10" width="19.453125" customWidth="1"/>
     <col min="11" max="11" width="8.54296875" customWidth="1"/>
     <col min="12" max="12" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5">
+        <f>-1*10^(-15)</f>
+        <v>-1.0000000000000001E-15</v>
+      </c>
+      <c r="D3" s="5">
+        <f>-100*10^(-12)</f>
+        <v>-1E-10</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8">
         <f>1*10^(-15)</f>
         <v>1.0000000000000001E-15</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D4" s="8">
         <f>100*10^(-12)</f>
         <v>1E-10</v>
       </c>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="H4" s="11" t="s">
+      <c r="E4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="H5" s="11">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H5" s="10">
         <f>10^(-12)</f>
         <v>9.9999999999999998E-13</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="H7" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H7" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <f>D8*H5</f>
         <v>1E-10</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>100</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="13">
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="12">
         <f>10^6</f>
         <v>1000000</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="17" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="16">
         <f>D9*H11</f>
         <v>5000000000</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9">
         <v>5</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="E9" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="18">
         <f>C3/C8</f>
+        <v>-1.0000000000000001E-5</v>
+      </c>
+      <c r="D10">
+        <f>D3/C8</f>
+        <v>-1</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="18">
+        <f>C4/C8</f>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D10" s="19">
-        <f>D3/C8</f>
+      <c r="D11">
+        <f>D4/C8</f>
         <v>1</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B11" s="17"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="H11" s="15">
+      <c r="E11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="14">
         <f>10^(9)</f>
         <v>1000000000</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="15"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C13" s="42">
         <f>C9*C8</f>
         <v>0.5</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="24">
-        <f>C12*5</f>
+      <c r="D13" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="44">
+        <f>C13*5</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>4.5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
       <c r="H14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H15" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I15">
-        <v>3.3</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="19"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-    </row>
-    <row r="18" spans="2:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="5">
         <v>10000</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <f>C18/(10^3)</f>
         <v>10</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="46"/>
-      <c r="L18" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="M18" s="19"/>
-    </row>
-    <row r="19" spans="2:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="19">
-        <v>30000</v>
-      </c>
-      <c r="D19" s="19">
+      <c r="E18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>40000</v>
+      </c>
+      <c r="D19">
         <f>C19/(10^3)</f>
-        <v>30</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="17">
-        <v>16</v>
-      </c>
-      <c r="I19" s="45">
-        <f>I15/2^H19</f>
-        <v>5.0354003906249997E-5</v>
-      </c>
-      <c r="J19" s="49">
-        <f>C8*(I19/C25)</f>
-        <v>1.6784667968749999E-15</v>
-      </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="51"/>
+        <v>40</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="15">
+        <v>14</v>
+      </c>
+      <c r="I19" s="26">
+        <f>$I$15/2^H19</f>
+        <v>7.32421875E-4</v>
+      </c>
+      <c r="J19" s="29">
+        <f>$C$8*(I19/$C$20)</f>
+        <v>1.8310546875E-14</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19" s="31"/>
       <c r="M19" t="b">
         <f>AND(ABS(C22)&gt;I19, ABS(D22)&lt;I15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B20" s="17"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="H20" s="17">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1">
+        <f>C19/C18</f>
+        <v>4</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="H20" s="15">
         <v>18</v>
       </c>
-      <c r="I20" s="45">
-        <f>I15/2^H20</f>
-        <v>1.2588500976562499E-5</v>
-      </c>
-      <c r="J20" s="20">
-        <f>C8*(I20/C25)</f>
-        <v>4.1961669921874998E-16</v>
-      </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="19" t="b">
+      <c r="I20" s="26">
+        <f>$I$15/2^H20</f>
+        <v>4.57763671875E-5</v>
+      </c>
+      <c r="J20" s="29">
+        <f>$C$8*(I20/$C$20)</f>
+        <v>1.1444091796875E-15</v>
+      </c>
+      <c r="K20" s="20"/>
+      <c r="L20" s="31"/>
+      <c r="M20" t="b">
         <f>AND(ABS(C22)&gt;I20, ABS(D22)&lt;I15)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B21" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="31">
-        <f>C19/C18</f>
-        <v>3</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="H21" s="8">
-        <v>20</v>
-      </c>
-      <c r="I21" s="50">
-        <f>I15/2^H21</f>
-        <v>3.1471252441406248E-6</v>
-      </c>
-      <c r="J21" s="10">
-        <f>C8*(I21/C25)</f>
-        <v>1.049041748046875E-16</v>
-      </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="40">
+        <f>-C20*$C$10</f>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="D21" s="41">
+        <f>-C20*$D$10</f>
+        <v>4</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="H21" s="7">
+        <v>20</v>
+      </c>
+      <c r="I21" s="30">
+        <f t="shared" ref="I21" si="0">$I$15/2^H21</f>
+        <v>1.1444091796875E-5</v>
+      </c>
+      <c r="J21" s="33">
+        <f>$C$8*(I21/$C$20)</f>
+        <v>2.86102294921875E-16</v>
+      </c>
+      <c r="K21" s="20"/>
+      <c r="L21" s="31"/>
+      <c r="M21" t="b">
         <f>AND(ABS(C22)&gt;I21, ABS(D22)&lt;I15)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="35"/>
+      <c r="B22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="36">
+        <f>-C20*$C$11</f>
+        <v>-4.0000000000000003E-5</v>
+      </c>
+      <c r="D22" s="25">
+        <f>-C20*$D$11</f>
+        <v>-4</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B24" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="19">
+        <f>C21+C14</f>
+        <v>4.5000400000000003</v>
+      </c>
+      <c r="D24" s="19">
+        <f>D21+C14</f>
+        <v>8.5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B25" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="19">
+        <f>C22+C14</f>
+        <v>4.4999599999999997</v>
+      </c>
+      <c r="D25" s="19">
+        <f>D22+C14</f>
+        <v>0.5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="15">
+        <f>H19</f>
+        <v>14</v>
+      </c>
+      <c r="I25" s="19">
+        <f>I19*10^6</f>
+        <v>732.421875</v>
+      </c>
+      <c r="J25" s="27">
+        <f>J19*10^15</f>
+        <v>18.310546875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H26" s="15">
+        <f>H20</f>
+        <v>18</v>
+      </c>
+      <c r="I26" s="19">
+        <f t="shared" ref="I26:I27" si="1">I20*10^6</f>
+        <v>45.7763671875</v>
+      </c>
+      <c r="J26" s="27">
+        <f t="shared" ref="J26:J27" si="2">J20*10^15</f>
+        <v>1.1444091796875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H27" s="7">
+        <f>H21</f>
+        <v>20</v>
+      </c>
+      <c r="I27" s="21">
+        <f t="shared" si="1"/>
+        <v>11.444091796875</v>
+      </c>
+      <c r="J27" s="28">
+        <f t="shared" si="2"/>
+        <v>0.286102294921875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D28" s="5">
+        <f>C28/(10^3)</f>
+        <v>10</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>150000</v>
+      </c>
+      <c r="D29">
+        <f>C29/(10^3)</f>
+        <v>150</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="1">
+        <f>C29/C28</f>
+        <v>15</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="H30" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="40">
+        <f>-C30*$C$10</f>
+        <v>1.5000000000000001E-4</v>
+      </c>
+      <c r="D31" s="41">
+        <f>-C30*$D$10</f>
+        <v>15</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="H31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31">
+        <v>9</v>
+      </c>
+      <c r="J31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="35"/>
+      <c r="B32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="36">
+        <f>-C30*$C$11</f>
+        <v>-1.5000000000000001E-4</v>
+      </c>
+      <c r="D32" s="25">
+        <f>-C30*$D$11</f>
+        <v>-15</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" t="str">
+        <f>IMLOG2(I31/I15*2^H37)</f>
+        <v>13.5849625007212</v>
+      </c>
+      <c r="J33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="38">
+        <f>I31/I15</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B34" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="19">
+        <f>C31+C14</f>
+        <v>4.5001499999999997</v>
+      </c>
+      <c r="D34" s="19">
+        <f>D31+C14</f>
+        <v>19.5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B35" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="19">
+        <f>C32+C14</f>
+        <v>4.4998500000000003</v>
+      </c>
+      <c r="D35" s="19">
+        <f>D32+C14</f>
+        <v>-10.5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="27">
-        <f>-C21*C10</f>
-        <v>-3.0000000000000004E-5</v>
-      </c>
-      <c r="D22" s="44">
-        <f>-C21*D10</f>
-        <v>-3</v>
-      </c>
-      <c r="E22" s="10" t="s">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H36" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="15">
+        <v>14</v>
+      </c>
+      <c r="I37" s="26">
+        <f>$I$31/2^I33</f>
+        <v>7.3242187499997756E-4</v>
+      </c>
+      <c r="J37" s="29">
+        <f>$C$8*(I37/C20)</f>
+        <v>1.8310546874999438E-14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D38" s="5">
+        <f>C38/(10^3)</f>
+        <v>10</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="15">
+        <v>14</v>
+      </c>
+      <c r="I38" s="26">
+        <f t="shared" ref="I38:I39" si="3">$I$15/2^H38</f>
+        <v>7.32421875E-4</v>
+      </c>
+      <c r="J38" s="29">
+        <f>$C$8*(I38/C30)</f>
+        <v>4.8828125000000005E-15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39">
+        <v>470000</v>
+      </c>
+      <c r="D39">
+        <f>C39/(10^3)</f>
+        <v>470</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="7">
+        <v>14</v>
+      </c>
+      <c r="I39" s="30">
+        <f t="shared" si="3"/>
+        <v>7.32421875E-4</v>
+      </c>
+      <c r="J39" s="33">
+        <f>$C$8*(I39/C40)</f>
+        <v>1.558344414893617E-15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="1">
+        <f>D39/D38</f>
+        <v>47</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="40">
+        <f>-C40*$C$10</f>
+        <v>4.7000000000000004E-4</v>
+      </c>
+      <c r="D41" s="41">
+        <f>-C40*$D$10</f>
+        <v>47</v>
+      </c>
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" s="35"/>
+      <c r="B42" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="36">
+        <f>-C40*$C$11</f>
+        <v>-4.7000000000000004E-4</v>
+      </c>
+      <c r="D42" s="25">
+        <f>-C40*$D$11</f>
+        <v>-47</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="15">
+        <f>H37</f>
+        <v>14</v>
+      </c>
+      <c r="I43" s="19">
+        <f>I37*10^6</f>
+        <v>732.4218749999776</v>
+      </c>
+      <c r="J43" s="27">
+        <f>J37*10^15</f>
+        <v>18.310546874999439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B44" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="19">
+        <f>C41+C14</f>
+        <v>4.50047</v>
+      </c>
+      <c r="D44" s="19">
+        <f>D41+C14</f>
+        <v>51.5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="15">
+        <f>H38</f>
+        <v>14</v>
+      </c>
+      <c r="I44" s="19">
+        <f t="shared" ref="I44:I45" si="4">I38*10^6</f>
+        <v>732.421875</v>
+      </c>
+      <c r="J44" s="27">
+        <f t="shared" ref="J44:J45" si="5">J38*10^15</f>
+        <v>4.8828125000000009</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B45" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="19">
+        <f>C42+C14</f>
+        <v>4.49953</v>
+      </c>
+      <c r="D45" s="19">
+        <f>D42+C14</f>
+        <v>-42.5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" s="7">
+        <f>H39</f>
+        <v>14</v>
+      </c>
+      <c r="I45" s="21">
+        <f t="shared" si="4"/>
+        <v>732.421875</v>
+      </c>
+      <c r="J45" s="28">
+        <f t="shared" si="5"/>
+        <v>1.558344414893617</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B47" s="34"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="34"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D49" s="19"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="H24" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="19"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="1">
-        <f>C21</f>
-        <v>3</v>
-      </c>
-      <c r="H25" s="17">
-        <v>16</v>
-      </c>
-      <c r="I25" s="25">
-        <f>I19*10^6</f>
-        <v>50.35400390625</v>
-      </c>
-      <c r="J25" s="47">
-        <f>J19*10^15</f>
-        <v>1.678466796875</v>
-      </c>
-      <c r="K25" s="19"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="H26" s="17">
-        <v>18</v>
-      </c>
-      <c r="I26" s="25">
-        <f t="shared" ref="I26:I27" si="0">I20*10^6</f>
-        <v>12.5885009765625</v>
-      </c>
-      <c r="J26" s="47">
-        <f t="shared" ref="J26:J27" si="1">J20*10^15</f>
-        <v>0.41961669921875</v>
-      </c>
-      <c r="K26" s="19"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="H27" s="8">
-        <v>20</v>
-      </c>
-      <c r="I27" s="27">
-        <f t="shared" si="0"/>
-        <v>3.147125244140625</v>
-      </c>
-      <c r="J27" s="48">
-        <f t="shared" si="1"/>
-        <v>0.1049041748046875</v>
-      </c>
-      <c r="K27" s="19"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B39" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="35">
-        <f>10*10^3</f>
-        <v>10000</v>
-      </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="36"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B40" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="38">
-        <f>100*10^3</f>
+      <c r="B52" s="48">
+        <f>C19/C19</f>
+        <v>1</v>
+      </c>
+      <c r="C52" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="50">
+        <f>$C$14+($C$24-$C$14)*$B52</f>
+        <v>4.5000400000000003</v>
+      </c>
+      <c r="E52" s="50">
+        <f>$C$14+($D$24-$C$14)*$B52</f>
+        <v>8.5</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B53" s="49"/>
+      <c r="C53" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="36">
+        <f>$C$14+($D$25-$C$14)*$B52</f>
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="36">
+        <f>$C$14+($C$25-$C$14)*$B52</f>
+        <v>4.4999599999999997</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="45"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="51">
+        <f>(D52-$C$14)/$C20*$C$8</f>
+        <v>1.0000000000065512E-15</v>
+      </c>
+      <c r="E54" s="51">
+        <f>(E52-$C$14)/$C20*$C$8</f>
+        <v>1E-10</v>
+      </c>
+      <c r="H54" s="35"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="52">
+        <f>D54*10^15</f>
+        <v>1.0000000000065512</v>
+      </c>
+      <c r="E55" s="52">
+        <f>E54*10^15</f>
         <v>100000</v>
       </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B41" s="37"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="39"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B42" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="40">
-        <f>(C40/C39)</f>
-        <v>10</v>
-      </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B43" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="42">
-        <f>-C42*C22</f>
-        <v>3.0000000000000003E-4</v>
-      </c>
-      <c r="D43" s="42">
-        <f>-C42*D22</f>
+      <c r="H55" s="35"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H56" s="35"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="48">
+        <f>C19/C29</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="C57" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="50">
+        <f>$C$14+($C$24-$C$14)*$B57</f>
+        <v>4.5000106666666664</v>
+      </c>
+      <c r="E57" s="50">
+        <f>$C$14+($D$24-$C$14)*$B57</f>
+        <v>5.5666666666666664</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="45"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B58" s="49"/>
+      <c r="C58" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="36">
+        <f>$C$14+($D$25-$C$14)*$B57</f>
+        <v>3.4333333333333336</v>
+      </c>
+      <c r="E58" s="36">
+        <f>$C$14+($C$25-$C$14)*$B57</f>
+        <v>4.4999893333333336</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="35"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="51">
+        <f>(D57-$C$14)/$C30*$C$8</f>
+        <v>7.1111111109208501E-17</v>
+      </c>
+      <c r="E59" s="51">
+        <f>(E57-$C$14)/$C30*$C$8</f>
+        <v>7.1111111111111103E-12</v>
+      </c>
+      <c r="H59" s="35"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="52">
+        <f>D59*10^15</f>
+        <v>7.1111111109208508E-2</v>
+      </c>
+      <c r="E60" s="52">
+        <f>E59*10^15</f>
+        <v>7111.1111111111104</v>
+      </c>
+      <c r="H60" s="35"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H61" s="45"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="43" t="s">
-        <v>28</v>
+      <c r="B62" s="48">
+        <f>C19/C39</f>
+        <v>8.5106382978723402E-2</v>
+      </c>
+      <c r="C62" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="50">
+        <f>$C$14+($C$24-$C$14)*$B62</f>
+        <v>4.5000034042553194</v>
+      </c>
+      <c r="E62" s="50">
+        <f>$C$14+($D$24-$C$14)*$B62</f>
+        <v>4.8404255319148932</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="35"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B63" s="49"/>
+      <c r="C63" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="36">
+        <f>$C$14+($D$25-$C$14)*$B62</f>
+        <v>4.1595744680851068</v>
+      </c>
+      <c r="E63" s="36">
+        <f>$C$14+($C$25-$C$14)*$B62</f>
+        <v>4.4999965957446806</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="51">
+        <f>(D62-$C$14)/$C40*$C$8</f>
+        <v>7.2430964242912861E-18</v>
+      </c>
+      <c r="E64" s="51">
+        <f>(E62-$C$14)/$C40*$C$8</f>
+        <v>7.2430964237211326E-13</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="52">
+        <f>D64*10^15</f>
+        <v>7.2430964242912862E-3</v>
+      </c>
+      <c r="E65" s="52">
+        <f>E64*10^15</f>
+        <v>724.30964237211322</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
+    <mergeCell ref="B62:B63"/>
     <mergeCell ref="L18:L21"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B57:B58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LTspice_Simulation/Capstone_circuit_eqns.xlsx
+++ b/LTspice_Simulation/Capstone_circuit_eqns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5754f58900b5005/Documents/ECE41_413/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eisa Alsharifi\OneDrive\Desktop\School\Winter2025\ECE412\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="567" documentId="8_{8714C078-3746-4CDC-8366-3CF6C0496AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6020403D-B5EA-4460-A230-5BDF0BE687EC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D39BE4D-2249-4727-B6B1-5FB13DDC7D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="14490" windowHeight="16010" xr2:uid="{125BC698-6383-4C32-B98B-768D94B27DBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{125BC698-6383-4C32-B98B-768D94B27DBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,40 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
   <si>
     <t>Coulomb Circuit</t>
   </si>
@@ -227,6 +259,12 @@
   </si>
   <si>
     <t>in fempto</t>
+  </si>
+  <si>
+    <t>R_2 = no.</t>
+  </si>
+  <si>
+    <t>R_eq = 1 G</t>
   </si>
 </sst>
 </file>
@@ -397,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -429,36 +467,41 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,6 +518,1117 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>593836</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="382028" cy="173766"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C631F8E9-0631-CFAB-DF85-232B39E2F057}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8739353" y="949654"/>
+              <a:ext cx="382028" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑉</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑛</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C631F8E9-0631-CFAB-DF85-232B39E2F057}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8739353" y="949654"/>
+              <a:ext cx="382028" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑉_𝑖𝑛= </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>626679</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8101</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="320793" cy="173766"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F3CD3D-8B8E-BA77-F601-67FBDF272AA6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12844955" y="1497067"/>
+              <a:ext cx="320793" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑉</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐼</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F3CD3D-8B8E-BA77-F601-67FBDF272AA6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12844955" y="1497067"/>
+              <a:ext cx="320793" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑉_𝐼= </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="259943" cy="173766"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB850D0D-EE44-BE28-0A8D-4E1AD1CC9E4B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10731938" y="391290"/>
+              <a:ext cx="259943" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐼</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB850D0D-EE44-BE28-0A8D-4E1AD1CC9E4B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10731938" y="391290"/>
+              <a:ext cx="259943" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>= </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>407713</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>172325</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="179215" cy="173766"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B63FA812-4AD5-DB24-ABA4-306925D603AF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11399782" y="2219653"/>
+              <a:ext cx="179215" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B63FA812-4AD5-DB24-ABA4-306925D603AF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11399782" y="2219653"/>
+              <a:ext cx="179215" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑅_2</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>407713</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>183274</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="175946" cy="173766"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A497036E-8C27-EC3D-91FE-452A184A3E98}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11399782" y="1113877"/>
+              <a:ext cx="175946" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A497036E-8C27-EC3D-91FE-452A184A3E98}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11399782" y="1113877"/>
+              <a:ext cx="175946" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑅_1</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>352972</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>8102</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="240194" cy="182294"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AC19F1A-C68B-E7B8-8019-EBDD30C2D5D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12571248" y="2241550"/>
+              <a:ext cx="240194" cy="182294"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑒𝑞</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AC19F1A-C68B-E7B8-8019-EBDD30C2D5D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12571248" y="2241550"/>
+              <a:ext cx="240194" cy="182294"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑅_𝑒𝑞</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>221593</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>10948</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="182101" cy="173766"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E83DA6-EDE2-E8A2-BFB3-453A7990BFBF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16468834" y="10948"/>
+              <a:ext cx="182101" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐼</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑛</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E83DA6-EDE2-E8A2-BFB3-453A7990BFBF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16468834" y="10948"/>
+              <a:ext cx="182101" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐼_𝑖𝑛</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>1</v>
+    <v>5</v>
+    <v>Voltage source Symbol</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -794,28 +1948,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA788FB-05C8-49B4-A925-123CB0BB7A08}">
-  <dimension ref="A2:M65"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="87" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" customWidth="1"/>
-    <col min="9" max="9" width="20.6328125" customWidth="1"/>
-    <col min="10" max="10" width="19.453125" customWidth="1"/>
-    <col min="11" max="11" width="8.54296875" customWidth="1"/>
-    <col min="12" max="12" width="16.08984375" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -824,9 +1990,20 @@
         <v>2</v>
       </c>
       <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="39" t="s">
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="47">
+        <f>(R2*(1/1000000000))^-1</f>
+        <v>999999999.99999988</v>
+      </c>
+      <c r="T2" s="49">
+        <f>M3/R2</f>
+        <v>1.8823529411764707E-11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="5">
@@ -838,8 +2015,24 @@
         <v>-1E-10</v>
       </c>
       <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L3" s="48"/>
+      <c r="M3" s="49">
+        <f>J6/(O5+S17)</f>
+        <v>1.8823529411764707E-11</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3" s="47">
+        <f t="shared" ref="S3:S17" si="0">(R3*(1/1000000000))^-1</f>
+        <v>499999999.99999994</v>
+      </c>
+      <c r="T3" s="49">
+        <f>T2/2</f>
+        <v>9.4117647058823533E-12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="8">
         <f>1*10^(-15)</f>
@@ -853,24 +2046,98 @@
       <c r="H4" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="O4" s="41"/>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4" s="47">
+        <f t="shared" si="0"/>
+        <v>333333333.33333331</v>
+      </c>
+      <c r="T4" s="49">
+        <f t="shared" ref="T4:T17" si="1">T3/2</f>
+        <v>4.7058823529411767E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H5" s="10">
         <f>10^(-12)</f>
         <v>9.9999999999999998E-13</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="N5" s="45" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O5" s="47">
+        <v>1000000000</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5" s="47">
+        <f t="shared" si="0"/>
+        <v>249999999.99999997</v>
+      </c>
+      <c r="T5" s="49">
+        <f t="shared" si="1"/>
+        <v>2.3529411764705883E-12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I6" s="46"/>
+      <c r="J6" s="46">
+        <v>0.02</v>
+      </c>
+      <c r="K6" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="45"/>
+      <c r="O6" s="41"/>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6" s="47">
+        <f t="shared" si="0"/>
+        <v>200000000</v>
+      </c>
+      <c r="T6" s="49">
+        <f t="shared" si="1"/>
+        <v>1.1764705882352942E-12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="H7" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="45" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N7" s="45"/>
+      <c r="O7" s="41"/>
+      <c r="R7">
+        <v>6</v>
+      </c>
+      <c r="S7" s="47">
+        <f t="shared" si="0"/>
+        <v>166666666.66666666</v>
+      </c>
+      <c r="T7" s="49">
+        <f t="shared" si="1"/>
+        <v>5.8823529411764708E-13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -888,8 +2155,23 @@
         <f>10^6</f>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="49"/>
+      <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="S8" s="47">
+        <f t="shared" si="0"/>
+        <v>142857142.85714284</v>
+      </c>
+      <c r="T8" s="49">
+        <f t="shared" si="1"/>
+        <v>2.9411764705882354E-13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
@@ -903,8 +2185,25 @@
       <c r="E9" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L9" s="45"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="49">
+        <f>M3*O5</f>
+        <v>1.8823529411764708E-2</v>
+      </c>
+      <c r="R9">
+        <v>8</v>
+      </c>
+      <c r="S9" s="47">
+        <f t="shared" si="0"/>
+        <v>124999999.99999999</v>
+      </c>
+      <c r="T9" s="49">
+        <f t="shared" si="1"/>
+        <v>1.4705882352941177E-13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>46</v>
       </c>
@@ -922,8 +2221,20 @@
       <c r="H10" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L10" s="45"/>
+      <c r="R10">
+        <v>9</v>
+      </c>
+      <c r="S10" s="47">
+        <f t="shared" si="0"/>
+        <v>111111111.11111109</v>
+      </c>
+      <c r="T10" s="49">
+        <f t="shared" si="1"/>
+        <v>7.3529411764705885E-14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>47</v>
       </c>
@@ -942,31 +2253,70 @@
         <f>10^(9)</f>
         <v>1000000000</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L11" s="45"/>
+      <c r="N11" s="45" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O11" s="47"/>
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="S11" s="47">
+        <f t="shared" si="0"/>
+        <v>100000000</v>
+      </c>
+      <c r="T11" s="49">
+        <f t="shared" si="1"/>
+        <v>3.6764705882352943E-14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
       <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="N12" s="45"/>
+      <c r="O12" s="47"/>
+      <c r="R12">
+        <v>11</v>
+      </c>
+      <c r="S12" s="47">
+        <f t="shared" si="0"/>
+        <v>90909090.909090906</v>
+      </c>
+      <c r="T12" s="49">
+        <f t="shared" si="1"/>
+        <v>1.8382352941176471E-14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="36">
         <f>C9*C8</f>
         <v>0.5</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="38">
         <f>C13*5</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="32" t="s">
+      <c r="N13" s="45"/>
+      <c r="R13">
+        <v>12</v>
+      </c>
+      <c r="S13" s="47">
+        <f t="shared" si="0"/>
+        <v>83333333.333333328</v>
+      </c>
+      <c r="T13" s="49">
+        <f t="shared" si="1"/>
+        <v>9.1911764705882357E-15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C14">
@@ -978,8 +2328,20 @@
       <c r="H14" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="N14" s="45"/>
+      <c r="R14">
+        <v>13</v>
+      </c>
+      <c r="S14" s="47">
+        <f t="shared" si="0"/>
+        <v>76923076.923076913</v>
+      </c>
+      <c r="T14" s="49">
+        <f t="shared" si="1"/>
+        <v>4.5955882352941178E-15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
         <v>21</v>
       </c>
@@ -989,18 +2351,51 @@
       <c r="J15" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="R15">
+        <v>14</v>
+      </c>
+      <c r="S15" s="47">
+        <f t="shared" si="0"/>
+        <v>71428571.428571418</v>
+      </c>
+      <c r="T15" s="49">
+        <f t="shared" si="1"/>
+        <v>2.2977941176470589E-15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="R16">
+        <v>15</v>
+      </c>
+      <c r="S16" s="47">
+        <f t="shared" si="0"/>
+        <v>66666666.666666657</v>
+      </c>
+      <c r="T16" s="49">
+        <f t="shared" si="1"/>
+        <v>1.1488970588235295E-15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H17" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R17">
+        <v>16</v>
+      </c>
+      <c r="S17" s="47">
+        <f t="shared" si="0"/>
+        <v>62499999.999999993</v>
+      </c>
+      <c r="T17" s="49">
+        <f t="shared" si="1"/>
+        <v>5.7444852941176473E-16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -1026,11 +2421,11 @@
       <c r="J18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="31" t="s">
+      <c r="L18" s="44" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>9</v>
       </c>
@@ -1056,13 +2451,13 @@
         <v>1.8310546875E-14</v>
       </c>
       <c r="K19" s="20"/>
-      <c r="L19" s="31"/>
+      <c r="L19" s="44"/>
       <c r="M19" t="b">
         <f>AND(ABS(C22)&gt;I19, ABS(D22)&lt;I15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
         <v>31</v>
       </c>
@@ -1083,21 +2478,21 @@
         <v>1.1444091796875E-15</v>
       </c>
       <c r="K20" s="20"/>
-      <c r="L20" s="31"/>
+      <c r="L20" s="44"/>
       <c r="M20" t="b">
         <f>AND(ABS(C22)&gt;I20, ABS(D22)&lt;I15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="18">
         <f>-C20*$C$10</f>
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="1">
         <f>-C20*$D$10</f>
         <v>4</v>
       </c>
@@ -1106,26 +2501,25 @@
         <v>20</v>
       </c>
       <c r="I21" s="30">
-        <f t="shared" ref="I21" si="0">$I$15/2^H21</f>
+        <f t="shared" ref="I21" si="2">$I$15/2^H21</f>
         <v>1.1444091796875E-5</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="31">
         <f>$C$8*(I21/$C$20)</f>
         <v>2.86102294921875E-16</v>
       </c>
       <c r="K21" s="20"/>
-      <c r="L21" s="31"/>
+      <c r="L21" s="44"/>
       <c r="M21" t="b">
         <f>AND(ABS(C22)&gt;I21, ABS(D22)&lt;I15)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="32">
         <f>-C20*$C$11</f>
         <v>-4.0000000000000003E-5</v>
       </c>
@@ -1140,8 +2534,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B24" s="34" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="19">
@@ -1166,8 +2560,8 @@
       </c>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B25" s="34" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="19">
@@ -1194,35 +2588,35 @@
         <v>18.310546875</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H26" s="15">
         <f>H20</f>
         <v>18</v>
       </c>
       <c r="I26" s="19">
-        <f t="shared" ref="I26:I27" si="1">I20*10^6</f>
+        <f t="shared" ref="I26:I27" si="3">I20*10^6</f>
         <v>45.7763671875</v>
       </c>
       <c r="J26" s="27">
-        <f t="shared" ref="J26:J27" si="2">J20*10^15</f>
+        <f t="shared" ref="J26:J27" si="4">J20*10^15</f>
         <v>1.1444091796875</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="H27" s="7">
         <f>H21</f>
         <v>20</v>
       </c>
       <c r="I27" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.444091796875</v>
       </c>
       <c r="J27" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.286102294921875</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1240,7 +2634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
         <v>10</v>
       </c>
@@ -1255,7 +2649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
         <v>32</v>
       </c>
@@ -1268,15 +2662,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="40">
+      <c r="C31" s="18">
         <f>-C30*$C$10</f>
         <v>1.5000000000000001E-4</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="1">
         <f>-C30*$D$10</f>
         <v>15</v>
       </c>
@@ -1291,12 +2685,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="35"/>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="32">
         <f>-C30*$C$11</f>
         <v>-1.5000000000000001E-4</v>
       </c>
@@ -1308,7 +2701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
         <v>39</v>
       </c>
@@ -1319,13 +2712,13 @@
       <c r="J33" t="s">
         <v>41</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="34">
         <f>I31/I15</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B34" s="34" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="19">
@@ -1340,8 +2733,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B35" s="34" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="19">
@@ -1359,7 +2752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H36" s="22" t="s">
         <v>12</v>
       </c>
@@ -1370,7 +2763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
         <v>31</v>
       </c>
@@ -1386,7 +2779,7 @@
         <v>1.8310546874999438E-14</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>30</v>
       </c>
@@ -1410,7 +2803,7 @@
         <v>14</v>
       </c>
       <c r="I38" s="26">
-        <f t="shared" ref="I38:I39" si="3">$I$15/2^H38</f>
+        <f t="shared" ref="I38:I39" si="5">$I$15/2^H38</f>
         <v>7.32421875E-4</v>
       </c>
       <c r="J38" s="29">
@@ -1418,7 +2811,7 @@
         <v>4.8828125000000005E-15</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
         <v>34</v>
       </c>
@@ -1439,15 +2832,15 @@
         <v>14</v>
       </c>
       <c r="I39" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.32421875E-4</v>
       </c>
-      <c r="J39" s="33">
+      <c r="J39" s="31">
         <f>$C$8*(I39/C40)</f>
         <v>1.558344414893617E-15</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="s">
         <v>33</v>
       </c>
@@ -1460,26 +2853,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="40">
+      <c r="C41" s="18">
         <f>-C40*$C$10</f>
         <v>4.7000000000000004E-4</v>
       </c>
-      <c r="D41" s="41">
+      <c r="D41" s="1">
         <f>-C40*$D$10</f>
         <v>47</v>
       </c>
       <c r="E41" s="17"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="35"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="32">
         <f>-C40*$C$11</f>
         <v>-4.7000000000000004E-4</v>
       </c>
@@ -1500,7 +2892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>31</v>
       </c>
@@ -1517,8 +2909,8 @@
         <v>18.310546874999439</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B44" s="34" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>43</v>
       </c>
       <c r="C44" s="19">
@@ -1540,16 +2932,16 @@
         <v>14</v>
       </c>
       <c r="I44" s="19">
-        <f t="shared" ref="I44:I45" si="4">I38*10^6</f>
+        <f t="shared" ref="I44:I45" si="6">I38*10^6</f>
         <v>732.421875</v>
       </c>
       <c r="J44" s="27">
-        <f t="shared" ref="J44:J45" si="5">J38*10^15</f>
+        <f t="shared" ref="J44:J45" si="7">J38*10^15</f>
         <v>4.8828125000000009</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B45" s="34" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>42</v>
       </c>
       <c r="C45" s="19">
@@ -1571,30 +2963,26 @@
         <v>14</v>
       </c>
       <c r="I45" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>732.421875</v>
       </c>
       <c r="J45" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.558344414893617</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B47" s="34"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C47" s="33"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="34"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D49" s="19"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>48</v>
       </c>
@@ -1605,22 +2993,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="48">
+      <c r="B52" s="42">
         <f>C19/C19</f>
         <v>1</v>
       </c>
-      <c r="C52" s="47" t="s">
+      <c r="C52" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="50">
+      <c r="D52" s="39">
         <f>$C$14+($C$24-$C$14)*$B52</f>
         <v>4.5000400000000003</v>
       </c>
-      <c r="E52" s="50">
+      <c r="E52" s="39">
         <f>$C$14+($D$24-$C$14)*$B52</f>
         <v>8.5</v>
       </c>
@@ -1628,162 +3016,153 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B53" s="49"/>
-      <c r="C53" s="46" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="43"/>
+      <c r="C53" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="32">
         <f>$C$14+($D$25-$C$14)*$B52</f>
         <v>0.5</v>
       </c>
-      <c r="E53" s="36">
+      <c r="E53" s="32">
         <f>$C$14+($C$25-$C$14)*$B52</f>
         <v>4.4999599999999997</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H53" s="45"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H53" s="19"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="51">
+      <c r="D54" s="40">
         <f>(D52-$C$14)/$C20*$C$8</f>
         <v>1.0000000000065512E-15</v>
       </c>
-      <c r="E54" s="51">
+      <c r="E54" s="40">
         <f>(E52-$C$14)/$C20*$C$8</f>
         <v>1E-10</v>
       </c>
-      <c r="H54" s="35"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="52">
+      <c r="D55">
         <f>D54*10^15</f>
         <v>1.0000000000065512</v>
       </c>
-      <c r="E55" s="52">
+      <c r="E55">
         <f>E54*10^15</f>
         <v>100000</v>
       </c>
-      <c r="H55" s="35"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H56" s="35"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="48">
+      <c r="B57" s="42">
         <f>C19/C29</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="C57" s="47" t="s">
+      <c r="C57" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="50">
+      <c r="D57" s="39">
         <f>$C$14+($C$24-$C$14)*$B57</f>
         <v>4.5000106666666664</v>
       </c>
-      <c r="E57" s="50">
+      <c r="E57" s="39">
         <f>$C$14+($D$24-$C$14)*$B57</f>
         <v>5.5666666666666664</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H57" s="45"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B58" s="49"/>
-      <c r="C58" s="46" t="s">
+      <c r="H57" s="19"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="43"/>
+      <c r="C58" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="36">
+      <c r="D58" s="32">
         <f>$C$14+($D$25-$C$14)*$B57</f>
         <v>3.4333333333333336</v>
       </c>
-      <c r="E58" s="36">
+      <c r="E58" s="32">
         <f>$C$14+($C$25-$C$14)*$B57</f>
         <v>4.4999893333333336</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H58" s="35"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="51">
+      <c r="D59" s="40">
         <f>(D57-$C$14)/$C30*$C$8</f>
         <v>7.1111111109208501E-17</v>
       </c>
-      <c r="E59" s="51">
+      <c r="E59" s="40">
         <f>(E57-$C$14)/$C30*$C$8</f>
         <v>7.1111111111111103E-12</v>
       </c>
-      <c r="H59" s="35"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="52">
+      <c r="D60">
         <f>D59*10^15</f>
         <v>7.1111111109208508E-2</v>
       </c>
-      <c r="E60" s="52">
+      <c r="E60">
         <f>E59*10^15</f>
         <v>7111.1111111111104</v>
       </c>
-      <c r="H60" s="35"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H61" s="45"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H61" s="19"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="48">
+      <c r="B62" s="42">
         <f>C19/C39</f>
         <v>8.5106382978723402E-2</v>
       </c>
-      <c r="C62" s="47" t="s">
+      <c r="C62" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="50">
+      <c r="D62" s="39">
         <f>$C$14+($C$24-$C$14)*$B62</f>
         <v>4.5000034042553194</v>
       </c>
-      <c r="E62" s="50">
+      <c r="E62" s="39">
         <f>$C$14+($D$24-$C$14)*$B62</f>
         <v>4.8404255319148932</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="35"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B63" s="49"/>
-      <c r="C63" s="46" t="s">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="43"/>
+      <c r="C63" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="36">
+      <c r="D63" s="32">
         <f>$C$14+($D$25-$C$14)*$B62</f>
         <v>4.1595744680851068</v>
       </c>
-      <c r="E63" s="36">
+      <c r="E63" s="32">
         <f>$C$14+($C$25-$C$14)*$B62</f>
         <v>4.4999965957446806</v>
       </c>
@@ -1791,39 +3170,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>51</v>
       </c>
-      <c r="D64" s="51">
+      <c r="D64" s="40">
         <f>(D62-$C$14)/$C40*$C$8</f>
         <v>7.2430964242912861E-18</v>
       </c>
-      <c r="E64" s="51">
+      <c r="E64" s="40">
         <f>(E62-$C$14)/$C40*$C$8</f>
         <v>7.2430964237211326E-13</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="52">
+      <c r="D65">
         <f>D64*10^15</f>
         <v>7.2430964242912862E-3</v>
       </c>
-      <c r="E65" s="52">
+      <c r="E65">
         <f>E64*10^15</f>
         <v>724.30964237211322</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="B62:B63"/>
     <mergeCell ref="L18:L21"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B57:B58"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="L7:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>